--- a/biology/Botanique/Shōyō-en/Shōyō-en.xlsx
+++ b/biology/Botanique/Shōyō-en/Shōyō-en.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sh%C5%8Dy%C5%8D-en</t>
+          <t>Shōyō-en</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Shōyō-en (逍遥園?, Shōyō-en) est un jardin japonais situé à Nikkō dans la préfecture de Tochigi.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sh%C5%8Dy%C5%8D-en</t>
+          <t>Shōyō-en</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Emplacement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Shōyō-en se trouve en face de l'entrée du bâtiment principal (Sanbutsudō) du temple Rinnō, un temple bouddhiste de la ville de Nikkō.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sh%C5%8Dy%C5%8D-en</t>
+          <t>Shōyō-en</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le jardin Shōyō a été créé au début de l'ère Edo (1603-1868)[1]. Bien que redessiné en partie au début du XIXe siècle, ce jardin reste typique des jardins de promenade (kaiyushiki teien) de l'époque d'Edo.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jardin Shōyō a été créé au début de l'ère Edo (1603-1868). Bien que redessiné en partie au début du XIXe siècle, ce jardin reste typique des jardins de promenade (kaiyushiki teien) de l'époque d'Edo.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sh%C5%8Dy%C5%8D-en</t>
+          <t>Shōyō-en</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Lieux remarquables</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Shōyō-en a été conçu en s'inspirant d'un thème de l'art traditionnel japonais : Huit vues d'Ōmi, une représentation artistique des plus belles vues des environs du lac Biwa, situé dans la préfecture de Shiga.
 Le jardin contient un étang à carpes, une maison de thé, des lanternes de pierre, un pont en pierre et de nombreux érables du Japon.
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sh%C5%8Dy%C5%8D-en</t>
+          <t>Shōyō-en</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,7 +628,9 @@
           <t>Source de la traduction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « Shōyō-en Garden » (voir la liste des auteurs).</t>
         </is>
